--- a/cifar10/Experiments_HT.xlsx
+++ b/cifar10/Experiments_HT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/cifar10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B3CE51-76AE-9C42-9861-71573570FE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB8697E-5575-F64F-9A1F-CF238D32B642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36900" yWindow="2780" windowWidth="30140" windowHeight="17900" xr2:uid="{D6506C5E-D1C4-1C4E-B017-6BC4C0DFEE14}"/>
+    <workbookView xWindow="37040" yWindow="3700" windowWidth="30140" windowHeight="17900" activeTab="1" xr2:uid="{D6506C5E-D1C4-1C4E-B017-6BC4C0DFEE14}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments_Steps" sheetId="4" r:id="rId1"/>
@@ -237,18 +237,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Mix Images=Cut mixが有効。また、Augmentations Strategy=Mediumの平均値が高いことも確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>resnet50</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Backborn=resnet50, tf_efficientnetv2_b3は同様に有効。Resnet50の学習時間が短いことから、Step2ではそちらを利用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1_1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,7 +374,30 @@
     <t>3_6</t>
   </si>
   <si>
-    <t>Step2で検証した有用なデータ拡張を用い、大きなBackborn（efficientnetv2_rw_m、convnext_base）を検証</t>
+    <t>Backboneのスケールアップにより、予測精度の向上を確認</t>
+    <rPh sb="20" eb="24">
+      <t xml:space="preserve">ヨソクセイドノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">コウジョウヲ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Backbone=resnet50, tf_efficientnetv2_b3は同様に有効。Resnet50の学習時間が短いことから、Step2ではそちらを利用
+Backbone=eca_nfnet_I0が示す通り、BackboneとLearning Rateの組み合わせで学習結果が大きく異なる場合がある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mix Images=Cut mixが有効。また、Augmentations Strategy=Mediumの（Accuracy Testの）平均値が高いことも確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Step2で検証した有用なデータ拡張を用い、大きなBackbone（efficientnetv2_rw_m、convnext_base）を検証
+（Backbone変更の際は、Learning rateも調整しなくてはならない）</t>
     <rPh sb="6" eb="8">
       <t xml:space="preserve">ケンショウシタ </t>
     </rPh>
@@ -397,19 +412,6 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t xml:space="preserve">ケンショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Backboreのスケールアップにより、予測精度の向上を確認</t>
-    <rPh sb="20" eb="24">
-      <t xml:space="preserve">ヨソクセイドノ </t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t xml:space="preserve">コウジョウヲ </t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t xml:space="preserve">カクニン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -623,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,9 +641,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -657,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -678,30 +677,9 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -723,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1132,57 +1110,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05940D92-7EC9-A74F-9D7B-6AD07B23C8E2}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="3" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" thickBot="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="63">
-      <c r="A2" s="6">
+    <row r="2" spans="1:3" ht="147">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>53</v>
+      <c r="C2" s="24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="63">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="64" thickBot="1">
-      <c r="A4" s="14">
+      <c r="C3" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="127" thickBot="1">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="27" t="s">
         <v>97</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1195,9 +1174,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE25F7F-EEDA-C740-9B47-1FBCD574C523}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:O1048576"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1211,232 +1190,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="64" thickBot="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="40" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1E-4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8">
+        <v>1.9791666666666668E-3</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>0.9</v>
+      </c>
+      <c r="J3">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11">
+        <v>1.9328703703703704E-3</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F4">
+        <v>1E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>0.67349999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.65549999999999997</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11">
+        <v>1.9560185185185184E-3</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>1E-4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H5" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="7">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9">
-        <v>1.9791666666666668E-3</v>
-      </c>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="10">
+      <c r="I5">
+        <v>0.872</v>
+      </c>
+      <c r="J5">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11">
+        <v>3.6689814814814814E-3</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="11">
+        <v>3.7268518518518519E-3</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="17">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.89149999999999996</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12">
-        <v>1.9328703703703704E-3</v>
-      </c>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.67349999999999999</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.65549999999999997</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12">
-        <v>1.9560185185185184E-3</v>
-      </c>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.872</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12">
-        <v>3.6689814814814814E-3</v>
-      </c>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="12">
-        <v>3.7268518518518519E-3</v>
-      </c>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="19">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
@@ -1463,202 +1442,202 @@
         <v>0.1095</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="13">
+      <c r="L7" s="12">
         <v>3.6921296296296298E-3</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>0.9415</v>
+      </c>
+      <c r="J8">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11">
+        <v>1.5393518518518519E-3</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11">
+        <v>1.5509259259259259E-3</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F10">
+        <v>1E-3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="J10">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11">
+        <v>1.5046296296296296E-3</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
         <v>1E-4</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="5">
-        <v>0.9415</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12">
-        <v>1.5393518518518519E-3</v>
-      </c>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="10">
+      <c r="I11">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11">
+        <v>2.8356481481481483E-3</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="F12">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G12" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H12" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="5">
-        <v>0.94850000000000001</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12">
-        <v>1.5509259259259259E-3</v>
-      </c>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="10">
+      <c r="I12">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="J12">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11">
+        <v>2.8587962962962963E-3</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.95850000000000002</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.94650000000000001</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12">
-        <v>1.5046296296296296E-3</v>
-      </c>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="10">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12">
-        <v>2.8356481481481483E-3</v>
-      </c>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12">
-        <v>2.8587962962962963E-3</v>
-      </c>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="19">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1687,785 +1666,785 @@
       <c r="K13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>2.8703703703703703E-3</v>
       </c>
-      <c r="M13" s="20"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1E-4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="J14">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11">
+        <v>2.650462962962963E-3</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11">
+        <v>2.627314814814815E-3</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F16">
+        <v>1E-3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="J16">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11">
+        <v>2.6157407407407405E-3</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
         <v>1E-4</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G17" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I17">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J17">
         <v>0.94899999999999995</v>
       </c>
-      <c r="J14" s="5">
-        <v>0.95150000000000001</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12">
-        <v>2.650462962962963E-3</v>
-      </c>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="10">
+      <c r="K17" s="10"/>
+      <c r="L17" s="11">
+        <v>5.2662037037037035E-3</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="5">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G18" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H18" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I18">
+        <v>0.96</v>
+      </c>
+      <c r="J18">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="21" thickBot="1">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="J19">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11">
+        <v>4.9652777777777777E-3</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="6">
         <v>0.95250000000000001</v>
       </c>
-      <c r="J15" s="5">
-        <v>0.94950000000000001</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12">
-        <v>2.627314814814815E-3</v>
-      </c>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="10">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="J20" s="6">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8">
+        <v>2.8703703703703703E-3</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="9">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
         <v>1E-3</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G21" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J21">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="11">
+        <v>3.0092592592592593E-3</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>1E-3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>0.9425</v>
+      </c>
+      <c r="J22">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11">
+        <v>2.8703703703703703E-3</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1E-3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="5">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I23">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J23">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11">
+        <v>2.9166666666666668E-3</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>1E-3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="J24">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="11">
+        <v>3.0092592592592593E-3</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="9">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>1E-3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11">
+        <v>2.8703703703703703E-3</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>1E-3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="J26">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11">
+        <v>2.8935185185185184E-3</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="9">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1E-3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="J27">
         <v>0.93400000000000005</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12">
-        <v>2.6157407407407405E-3</v>
-      </c>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="10">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="K27" s="10"/>
+      <c r="L27" s="11">
+        <v>3.0092592592592593E-3</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="21" thickBot="1">
+      <c r="A28" s="13">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="14">
         <v>10</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F28" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16">
+        <v>2.8819444444444444E-3</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="6">
+        <v>10</v>
+      </c>
+      <c r="F29" s="6">
         <v>1E-4</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12">
-        <v>5.2662037037037035E-3</v>
-      </c>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="G29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="8">
+        <v>5.4513888888888893E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30">
         <v>10</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F30">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" thickBot="1">
-      <c r="A19" s="10">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="J30">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="11">
+        <v>5.3935185185185188E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="9">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F31">
         <v>1E-3</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.93149999999999999</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12">
-        <v>4.9652777777777777E-3</v>
-      </c>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="22">
-        <v>2</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="J31">
+        <v>0.2185</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="11">
+        <v>5.4050925925925924E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="9">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32">
         <v>10</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F32">
+        <v>1E-4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="J32">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="11">
+        <v>9.3402777777777772E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="9">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="J33">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="11">
+        <v>9.2592592592592587E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="21" thickBot="1">
+      <c r="A34" s="13">
+        <v>3</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10</v>
+      </c>
+      <c r="F34" s="14">
         <v>1E-3</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9">
-        <v>2.8703703703703703E-3</v>
-      </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="18">
-        <v>2</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="5">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="5">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.95850000000000002</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="12">
-        <v>3.0092592592592593E-3</v>
-      </c>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="18">
-        <v>2</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="5">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.9425</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.94450000000000001</v>
-      </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="12">
-        <v>2.8703703703703703E-3</v>
-      </c>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="18">
-        <v>2</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="12">
-        <v>2.9166666666666668E-3</v>
-      </c>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="18">
-        <v>2</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="5">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="I34" s="14">
         <v>0.95899999999999996</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="12">
-        <v>3.0092592592592593E-3</v>
-      </c>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="18">
-        <v>2</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="5">
-        <v>10</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="12">
-        <v>2.8703703703703703E-3</v>
-      </c>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="18">
-        <v>2</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="5">
-        <v>10</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="12">
-        <v>2.8935185185185184E-3</v>
-      </c>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="18">
-        <v>2</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="5">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="12">
-        <v>3.0092592592592593E-3</v>
-      </c>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" ht="21" thickBot="1">
-      <c r="A28" s="24">
-        <v>2</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="15">
-        <v>10</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="15">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17">
-        <v>2.8819444444444444E-3</v>
-      </c>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="22">
-        <v>3</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="7">
-        <v>10</v>
-      </c>
-      <c r="F29" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0.97950000000000004</v>
-      </c>
-      <c r="J29" s="7">
-        <v>0.98350000000000004</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="9">
-        <v>5.4513888888888893E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="18">
-        <v>3</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="5">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0.98150000000000004</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="12">
-        <v>5.3935185185185188E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="18">
-        <v>3</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="5">
-        <v>10</v>
-      </c>
-      <c r="F31" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="5">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="J31" s="5">
-        <v>0.2185</v>
-      </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="12">
-        <v>5.4050925925925924E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="18">
-        <v>3</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="5">
-        <v>10</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="5">
-        <v>0.96850000000000003</v>
-      </c>
-      <c r="J32" s="5">
-        <v>0.96750000000000003</v>
-      </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="12">
-        <v>9.3402777777777772E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="18">
-        <v>3</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="5">
-        <v>10</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="5">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="J33" s="5">
-        <v>0.96950000000000003</v>
-      </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="12">
-        <v>9.2592592592592587E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="21" thickBot="1">
-      <c r="A34" s="24">
-        <v>3</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="15">
-        <v>10</v>
-      </c>
-      <c r="F34" s="15">
-        <v>1E-3</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="15">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="J34" s="15">
+      <c r="J34" s="14">
         <v>0.95</v>
       </c>
-      <c r="K34" s="27"/>
-      <c r="L34" s="17">
+      <c r="K34" s="19"/>
+      <c r="L34" s="16">
         <v>9.2476851851851852E-3</v>
       </c>
     </row>
@@ -2481,6 +2460,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{621B41F0-49C9-1140-BECC-7E96AC5400EB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20:I28">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3AE1144B-1055-7B4D-A725-30A262E208CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I34">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D0B9BB2D-94C1-3A4C-8588-6C713FC7863D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2499,20 +2506,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I28">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3AE1144B-1055-7B4D-A725-30A262E208CE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J20:J28">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -2523,20 +2516,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{61052C70-A0F6-424A-954C-87CF59C3C22E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I34">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D0B9BB2D-94C1-3A4C-8588-6C713FC7863D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2573,6 +2552,32 @@
           <xm:sqref>I2:I19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3AE1144B-1055-7B4D-A725-30A262E208CE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I20:I28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D0B9BB2D-94C1-3A4C-8588-6C713FC7863D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I29:I34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1D58BABE-F603-BD45-B123-50F9B1C04A56}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -2586,19 +2591,6 @@
           <xm:sqref>J2:J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3AE1144B-1055-7B4D-A725-30A262E208CE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I20:I28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{61052C70-A0F6-424A-954C-87CF59C3C22E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -2610,19 +2602,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>J20:J28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D0B9BB2D-94C1-3A4C-8588-6C713FC7863D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I29:I34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F4B63BAA-B1B3-9B49-83AD-93456301FF57}">
@@ -2655,7 +2634,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
